--- a/chapter2/Chapter2-HW.xlsx
+++ b/chapter2/Chapter2-HW.xlsx
@@ -402,6 +402,122 @@
             </a:rPr>
             <a:t>In addition, please feel free to change the values.  They are just faked data.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note, the LINEST function returns the coefficient array in the order of SAT cutoff, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>admission activities,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>media advertisement investment,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> number of open house visitors, financial aid available, financial scholarship, comparable tuition fee, USA Economics, Num high school graduates, and the intercept b.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -724,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A12:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
